--- a/dca_test.xlsx
+++ b/dca_test.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XE23"/>
+  <dimension ref="A1:XG23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2425,14 +2425,22 @@
           <t>16-12-2024</t>
         </is>
       </c>
-      <c r="XD1" s="1" t="inlineStr">
+      <c r="XD1" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
         <is>
           <t>18-12-2024</t>
         </is>
       </c>
-      <c r="XE1" s="1" t="inlineStr">
+      <c r="XF1" s="1" t="inlineStr">
         <is>
           <t>19-12-2024</t>
+        </is>
+      </c>
+      <c r="XG1" s="1" t="inlineStr">
+        <is>
+          <t>20-12-2024</t>
         </is>
       </c>
     </row>
@@ -4321,10 +4329,16 @@
         <v>43.32</v>
       </c>
       <c r="XD2" t="n">
+        <v>43.35</v>
+      </c>
+      <c r="XE2" t="n">
         <v>43.32</v>
       </c>
-      <c r="XE2" t="n">
+      <c r="XF2" t="n">
         <v>43.31</v>
+      </c>
+      <c r="XG2" t="n">
+        <v>43.32</v>
       </c>
     </row>
     <row r="3">
@@ -6212,10 +6226,16 @@
         <v>32.34</v>
       </c>
       <c r="XD3" t="n">
+        <v>32.36</v>
+      </c>
+      <c r="XE3" t="n">
         <v>32.27</v>
       </c>
-      <c r="XE3" t="n">
+      <c r="XF3" t="n">
         <v>32.06</v>
+      </c>
+      <c r="XG3" t="n">
+        <v>32.19</v>
       </c>
     </row>
     <row r="4">
@@ -8103,10 +8123,16 @@
         <v>37.3</v>
       </c>
       <c r="XD4" t="n">
+        <v>37.36</v>
+      </c>
+      <c r="XE4" t="n">
         <v>37.29</v>
       </c>
-      <c r="XE4" t="n">
+      <c r="XF4" t="n">
         <v>37.18</v>
+      </c>
+      <c r="XG4" t="n">
+        <v>37.29</v>
       </c>
     </row>
     <row r="5">
@@ -9994,10 +10020,16 @@
         <v>94.08</v>
       </c>
       <c r="XD5" t="n">
+        <v>94.16</v>
+      </c>
+      <c r="XE5" t="n">
         <v>94.03</v>
       </c>
-      <c r="XE5" t="n">
+      <c r="XF5" t="n">
         <v>93.84999999999999</v>
+      </c>
+      <c r="XG5" t="n">
+        <v>93.95</v>
       </c>
     </row>
     <row r="6">
@@ -11885,10 +11917,16 @@
         <v>158.96</v>
       </c>
       <c r="XD6" t="n">
+        <v>158.6</v>
+      </c>
+      <c r="XE6" t="n">
         <v>158.59</v>
       </c>
-      <c r="XE6" t="n">
+      <c r="XF6" t="n">
         <v>158.39</v>
+      </c>
+      <c r="XG6" t="n">
+        <v>158.38</v>
       </c>
     </row>
     <row r="7">
@@ -13779,7 +13817,13 @@
         <v>124.07</v>
       </c>
       <c r="XE7" t="n">
+        <v>124.07</v>
+      </c>
+      <c r="XF7" t="n">
         <v>123.75</v>
+      </c>
+      <c r="XG7" t="n">
+        <v>123.94</v>
       </c>
     </row>
     <row r="8">
@@ -15667,10 +15711,16 @@
         <v>114.44</v>
       </c>
       <c r="XD8" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="XE8" t="n">
         <v>114.39</v>
       </c>
-      <c r="XE8" t="n">
+      <c r="XF8" t="n">
         <v>114.23</v>
+      </c>
+      <c r="XG8" t="n">
+        <v>114.18</v>
       </c>
     </row>
     <row r="9">
@@ -17558,10 +17608,16 @@
         <v>89.48999999999999</v>
       </c>
       <c r="XD9" t="n">
-        <v>89.31</v>
+        <v>89.36</v>
       </c>
       <c r="XE9" t="n">
         <v>89.31</v>
+      </c>
+      <c r="XF9" t="n">
+        <v>89.31</v>
+      </c>
+      <c r="XG9" t="n">
+        <v>89.58</v>
       </c>
     </row>
     <row r="10">
@@ -19449,10 +19505,16 @@
         <v>44.75</v>
       </c>
       <c r="XD10" t="n">
+        <v>44.74</v>
+      </c>
+      <c r="XE10" t="n">
         <v>44.73</v>
       </c>
-      <c r="XE10" t="n">
+      <c r="XF10" t="n">
         <v>44.71</v>
+      </c>
+      <c r="XG10" t="n">
+        <v>44.72</v>
       </c>
     </row>
     <row r="11">
@@ -21340,10 +21402,16 @@
         <v>58.91</v>
       </c>
       <c r="XD11" t="n">
+        <v>58.84</v>
+      </c>
+      <c r="XE11" t="n">
         <v>58.82</v>
       </c>
-      <c r="XE11" t="n">
+      <c r="XF11" t="n">
         <v>58.77</v>
+      </c>
+      <c r="XG11" t="n">
+        <v>58.88</v>
       </c>
     </row>
     <row r="12">
@@ -23231,10 +23299,16 @@
         <v>194.37</v>
       </c>
       <c r="XD12" t="n">
+        <v>194.7</v>
+      </c>
+      <c r="XE12" t="n">
         <v>194.57</v>
       </c>
-      <c r="XE12" t="n">
+      <c r="XF12" t="n">
         <v>193.31</v>
+      </c>
+      <c r="XG12" t="n">
+        <v>194.56</v>
       </c>
     </row>
     <row r="13">
@@ -25122,10 +25196,16 @@
         <v>169.19</v>
       </c>
       <c r="XD13" t="n">
+        <v>168.78</v>
+      </c>
+      <c r="XE13" t="n">
         <v>168.62</v>
       </c>
-      <c r="XE13" t="n">
+      <c r="XF13" t="n">
         <v>168.45</v>
+      </c>
+      <c r="XG13" t="n">
+        <v>168.51</v>
       </c>
     </row>
     <row r="14">
@@ -27013,10 +27093,16 @@
         <v>145.91</v>
       </c>
       <c r="XD14" t="n">
+        <v>146.28</v>
+      </c>
+      <c r="XE14" t="n">
         <v>146.17</v>
       </c>
-      <c r="XE14" t="n">
+      <c r="XF14" t="n">
         <v>146</v>
+      </c>
+      <c r="XG14" t="n">
+        <v>145.94</v>
       </c>
     </row>
     <row r="15">
@@ -28904,10 +28990,16 @@
         <v>143.49</v>
       </c>
       <c r="XD15" t="n">
+        <v>143.82</v>
+      </c>
+      <c r="XE15" t="n">
         <v>143.63</v>
       </c>
-      <c r="XE15" t="n">
+      <c r="XF15" t="n">
         <v>143.03</v>
+      </c>
+      <c r="XG15" t="n">
+        <v>143.37</v>
       </c>
     </row>
     <row r="16">
@@ -30795,10 +30887,16 @@
         <v>153.35</v>
       </c>
       <c r="XD16" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="XE16" t="n">
         <v>153.51</v>
       </c>
-      <c r="XE16" t="n">
+      <c r="XF16" t="n">
         <v>153.82</v>
+      </c>
+      <c r="XG16" t="n">
+        <v>153.65</v>
       </c>
     </row>
     <row r="17">
@@ -32686,10 +32784,16 @@
         <v>134.33</v>
       </c>
       <c r="XD17" t="n">
+        <v>134.38</v>
+      </c>
+      <c r="XE17" t="n">
         <v>134.22</v>
       </c>
-      <c r="XE17" t="n">
+      <c r="XF17" t="n">
         <v>134.54</v>
+      </c>
+      <c r="XG17" t="n">
+        <v>134.42</v>
       </c>
     </row>
     <row r="18">
@@ -34577,9 +34681,15 @@
         <v>55.03</v>
       </c>
       <c r="XD18" t="n">
+        <v>54.94</v>
+      </c>
+      <c r="XE18" t="n">
         <v>54.88</v>
       </c>
-      <c r="XE18" t="n">
+      <c r="XF18" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="XG18" t="n">
         <v>54.91</v>
       </c>
     </row>
@@ -36468,10 +36578,16 @@
         <v>271.71</v>
       </c>
       <c r="XD19" t="n">
+        <v>271.18</v>
+      </c>
+      <c r="XE19" t="n">
         <v>271.83</v>
       </c>
-      <c r="XE19" t="n">
+      <c r="XF19" t="n">
         <v>272.37</v>
+      </c>
+      <c r="XG19" t="n">
+        <v>271.52</v>
       </c>
     </row>
     <row r="20">
@@ -38359,10 +38475,16 @@
         <v>21.93</v>
       </c>
       <c r="XD20" t="n">
+        <v>22</v>
+      </c>
+      <c r="XE20" t="n">
         <v>21.99</v>
       </c>
-      <c r="XE20" t="n">
+      <c r="XF20" t="n">
         <v>22.01</v>
+      </c>
+      <c r="XG20" t="n">
+        <v>21.99</v>
       </c>
     </row>
     <row r="21">
@@ -40250,10 +40372,16 @@
         <v>37.07</v>
       </c>
       <c r="XD21" t="n">
+        <v>36.89</v>
+      </c>
+      <c r="XE21" t="n">
         <v>36.66</v>
       </c>
-      <c r="XE21" t="n">
+      <c r="XF21" t="n">
         <v>36.45</v>
+      </c>
+      <c r="XG21" t="n">
+        <v>36.38</v>
       </c>
     </row>
     <row r="22">
@@ -42141,10 +42269,16 @@
         <v>51.9</v>
       </c>
       <c r="XD22" t="n">
+        <v>51.28</v>
+      </c>
+      <c r="XE22" t="n">
         <v>50.8</v>
       </c>
-      <c r="XE22" t="n">
+      <c r="XF22" t="n">
         <v>49.96</v>
+      </c>
+      <c r="XG22" t="n">
+        <v>49.49</v>
       </c>
     </row>
     <row r="23">
@@ -44032,10 +44166,16 @@
         <v>46.15</v>
       </c>
       <c r="XD23" t="n">
+        <v>45.62</v>
+      </c>
+      <c r="XE23" t="n">
         <v>45.1</v>
       </c>
-      <c r="XE23" t="n">
+      <c r="XF23" t="n">
         <v>44.71</v>
+      </c>
+      <c r="XG23" t="n">
+        <v>44.66</v>
       </c>
     </row>
   </sheetData>
